--- a/Sql.xlsx
+++ b/Sql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,29 @@
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>获取当月的第一天</t>
+  </si>
+  <si>
+    <t>SELECT DATEADD(dd,-DAY(GETDATE())+1,GETDATE())</t>
+  </si>
+  <si>
+    <t>获取当月的最后一天</t>
+  </si>
+  <si>
+    <t>SELECT DATEADD(dd,-DAY(DATEADD(m,1,GETDATE())),DATEADD(m,1,GETDATE()))</t>
+  </si>
+  <si>
+    <t>将日期转换为yyyy-MM-dd</t>
+  </si>
+  <si>
+    <t>SELECT CONVERT(CHAR(10),GETDATE(),120)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -549,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
@@ -564,12 +587,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
